--- a/src/main/java/com/mov/qa/testdata/MovieTestData.xlsx
+++ b/src/main/java/com/mov/qa/testdata/MovieTestData.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\priyanka\Working\DLA\Projects\MoviePortalAutomation\src\main\java\com\mov\qa\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12560" windowHeight="6080" tabRatio="500"/>
   </bookViews>
@@ -12,7 +17,6 @@
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>title</t>
   </si>
@@ -34,6 +38,9 @@
   </si>
   <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>pushpa</t>
   </si>
 </sst>
 </file>
@@ -366,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -388,9 +395,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
